--- a/dataanalysis/data/predictions/1200/07211131_1151.xlsx
+++ b/dataanalysis/data/predictions/1200/07211131_1151.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="127">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-21</t>
   </si>
   <si>
@@ -392,12 +395,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -755,13 +752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,19 +840,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0.4</v>
@@ -873,7 +873,7 @@
         <v>47376.89</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -893,8 +893,23 @@
       <c r="P2">
         <v>-0.13</v>
       </c>
+      <c r="Q2">
+        <v>0.2</v>
+      </c>
+      <c r="R2">
+        <v>5.15</v>
+      </c>
+      <c r="S2">
+        <v>1.38</v>
+      </c>
       <c r="V2" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -902,22 +917,25 @@
       <c r="Z2">
         <v>7.031189441680908</v>
       </c>
-      <c r="AA2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>3.84</v>
@@ -935,7 +953,7 @@
         <v>67809.45</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3">
         <v>9</v>
@@ -955,8 +973,23 @@
       <c r="P3">
         <v>0.37</v>
       </c>
+      <c r="Q3">
+        <v>0.91</v>
+      </c>
+      <c r="R3">
+        <v>24.29</v>
+      </c>
+      <c r="S3">
+        <v>5.61</v>
+      </c>
       <c r="V3" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -964,22 +997,25 @@
       <c r="Z3">
         <v>6.122809410095215</v>
       </c>
-      <c r="AA3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300046</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>-1.27</v>
@@ -997,7 +1033,7 @@
         <v>62891.89</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -1017,8 +1053,23 @@
       <c r="P4">
         <v>-0.61</v>
       </c>
+      <c r="Q4">
+        <v>-2.16</v>
+      </c>
+      <c r="R4">
+        <v>43</v>
+      </c>
+      <c r="S4">
+        <v>0.42</v>
+      </c>
       <c r="V4" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1026,22 +1077,25 @@
       <c r="Z4">
         <v>1.680486083030701</v>
       </c>
-      <c r="AA4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1059,7 +1113,7 @@
         <v>104717.36</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K5">
         <v>7</v>
@@ -1079,8 +1133,23 @@
       <c r="P5">
         <v>0.51</v>
       </c>
+      <c r="Q5">
+        <v>-7.07</v>
+      </c>
+      <c r="R5">
+        <v>6.8</v>
+      </c>
+      <c r="S5">
+        <v>2.41</v>
+      </c>
       <c r="V5" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1088,22 +1157,25 @@
       <c r="Z5">
         <v>2.060918569564819</v>
       </c>
-      <c r="AA5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300180</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>-0.87</v>
@@ -1121,7 +1193,7 @@
         <v>63891.32</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K6">
         <v>24</v>
@@ -1141,8 +1213,23 @@
       <c r="P6">
         <v>-0.37</v>
       </c>
+      <c r="Q6">
+        <v>-1.87</v>
+      </c>
+      <c r="R6">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="S6">
+        <v>0.33</v>
+      </c>
       <c r="V6" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1150,22 +1237,25 @@
       <c r="Z6">
         <v>4.049548149108887</v>
       </c>
-      <c r="AA6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300195</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>1.59</v>
@@ -1183,7 +1273,7 @@
         <v>25713.43</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1203,8 +1293,23 @@
       <c r="P7">
         <v>0.21</v>
       </c>
+      <c r="Q7">
+        <v>-0.72</v>
+      </c>
+      <c r="R7">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="S7">
+        <v>6.03</v>
+      </c>
       <c r="V7" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1212,22 +1317,25 @@
       <c r="Z7">
         <v>1.307135105133057</v>
       </c>
-      <c r="AA7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300199</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>-0.83</v>
@@ -1245,7 +1353,7 @@
         <v>93317.28999999999</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8">
         <v>14</v>
@@ -1265,8 +1373,23 @@
       <c r="P8">
         <v>-0.88</v>
       </c>
+      <c r="Q8">
+        <v>0.59</v>
+      </c>
+      <c r="R8">
+        <v>19.97</v>
+      </c>
+      <c r="S8">
+        <v>4.45</v>
+      </c>
       <c r="V8" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1274,22 +1397,25 @@
       <c r="Z8">
         <v>2.860460758209229</v>
       </c>
-      <c r="AA8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300283</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>-6.37</v>
@@ -1307,7 +1433,7 @@
         <v>57072.56</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1327,8 +1453,23 @@
       <c r="P9">
         <v>-2.06</v>
       </c>
+      <c r="Q9">
+        <v>-3.2</v>
+      </c>
+      <c r="R9">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="S9">
+        <v>2.48</v>
+      </c>
       <c r="V9" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1336,22 +1477,25 @@
       <c r="Z9">
         <v>3.656161308288574</v>
       </c>
-      <c r="AA9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300291</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>-0.96</v>
@@ -1369,7 +1513,7 @@
         <v>19865.66</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1389,8 +1533,23 @@
       <c r="P10">
         <v>-0.16</v>
       </c>
+      <c r="Q10">
+        <v>0.32</v>
+      </c>
+      <c r="R10">
+        <v>6.23</v>
+      </c>
+      <c r="S10">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="V10" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1398,22 +1557,25 @@
       <c r="Z10">
         <v>4.756736755371094</v>
       </c>
-      <c r="AA10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300308</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>-0.74</v>
@@ -1431,7 +1593,7 @@
         <v>586054.4</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K11">
         <v>5</v>
@@ -1451,8 +1613,23 @@
       <c r="P11">
         <v>0.06</v>
       </c>
+      <c r="Q11">
+        <v>-1.87</v>
+      </c>
+      <c r="R11">
+        <v>197.1</v>
+      </c>
+      <c r="S11">
+        <v>9.93</v>
+      </c>
       <c r="V11" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1460,22 +1637,25 @@
       <c r="Z11">
         <v>0.4770910441875458</v>
       </c>
-      <c r="AA11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300348</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>-2.74</v>
@@ -1493,7 +1673,7 @@
         <v>109832.68</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1513,8 +1693,23 @@
       <c r="P12">
         <v>-1.64</v>
       </c>
+      <c r="Q12">
+        <v>-2.4</v>
+      </c>
+      <c r="R12">
+        <v>18.35</v>
+      </c>
+      <c r="S12">
+        <v>-0.49</v>
+      </c>
       <c r="V12" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1522,22 +1717,25 @@
       <c r="Z12">
         <v>6.64418888092041</v>
       </c>
-      <c r="AA12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300414</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>2.03</v>
@@ -1555,7 +1753,7 @@
         <v>38364.92</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K13">
         <v>6</v>
@@ -1575,8 +1773,23 @@
       <c r="P13">
         <v>0.23</v>
       </c>
+      <c r="Q13">
+        <v>2.86</v>
+      </c>
+      <c r="R13">
+        <v>14.79</v>
+      </c>
+      <c r="S13">
+        <v>8.75</v>
+      </c>
       <c r="V13" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1584,22 +1797,25 @@
       <c r="Z13">
         <v>0.8872995972633362</v>
       </c>
-      <c r="AA13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300436</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>6.13</v>
@@ -1617,7 +1833,7 @@
         <v>97304.61</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14">
         <v>13</v>
@@ -1637,8 +1853,23 @@
       <c r="P14">
         <v>0.54</v>
       </c>
+      <c r="Q14">
+        <v>-5.51</v>
+      </c>
+      <c r="R14">
+        <v>77.61</v>
+      </c>
+      <c r="S14">
+        <v>4.17</v>
+      </c>
       <c r="V14" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -1646,22 +1877,25 @@
       <c r="Z14">
         <v>3.976807832717896</v>
       </c>
-      <c r="AA14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300469</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>-0.52</v>
@@ -1679,7 +1913,7 @@
         <v>38221.2</v>
       </c>
       <c r="J15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -1699,8 +1933,23 @@
       <c r="P15">
         <v>-0.3</v>
       </c>
+      <c r="Q15">
+        <v>-1.11</v>
+      </c>
+      <c r="R15">
+        <v>48.04</v>
+      </c>
+      <c r="S15">
+        <v>5.35</v>
+      </c>
       <c r="V15" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1708,22 +1957,25 @@
       <c r="Z15">
         <v>4.642077445983887</v>
       </c>
-      <c r="AA15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300502</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>-3.66</v>
@@ -1741,7 +1993,7 @@
         <v>725729.6899999999</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16">
         <v>19</v>
@@ -1761,8 +2013,23 @@
       <c r="P16">
         <v>-0.41</v>
       </c>
+      <c r="Q16">
+        <v>-0.87</v>
+      </c>
+      <c r="R16">
+        <v>184.2</v>
+      </c>
+      <c r="S16">
+        <v>4.87</v>
+      </c>
       <c r="V16" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1770,22 +2037,25 @@
       <c r="Z16">
         <v>1.306160092353821</v>
       </c>
-      <c r="AA16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300522</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>-4.66</v>
@@ -1803,7 +2073,7 @@
         <v>29835.4</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -1823,8 +2093,23 @@
       <c r="P17">
         <v>-1.24</v>
       </c>
+      <c r="Q17">
+        <v>-1.91</v>
+      </c>
+      <c r="R17">
+        <v>17.59</v>
+      </c>
+      <c r="S17">
+        <v>10.14</v>
+      </c>
       <c r="V17" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -1832,22 +2117,25 @@
       <c r="Z17">
         <v>4.861754417419434</v>
       </c>
-      <c r="AA17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300527</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>-0.27</v>
@@ -1865,7 +2153,7 @@
         <v>37205.15</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K18">
         <v>15</v>
@@ -1885,8 +2173,23 @@
       <c r="P18">
         <v>-0.33</v>
       </c>
+      <c r="Q18">
+        <v>10.39</v>
+      </c>
+      <c r="R18">
+        <v>12.74</v>
+      </c>
+      <c r="S18">
+        <v>14.67</v>
+      </c>
       <c r="V18" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -1894,22 +2197,25 @@
       <c r="Z18">
         <v>6.144981861114502</v>
       </c>
-      <c r="AA18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300533</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>2.04</v>
@@ -1927,7 +2233,7 @@
         <v>48437.69</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K19">
         <v>19</v>
@@ -1947,8 +2253,23 @@
       <c r="P19">
         <v>-0.02</v>
       </c>
+      <c r="Q19">
+        <v>-2.54</v>
+      </c>
+      <c r="R19">
+        <v>37.29</v>
+      </c>
+      <c r="S19">
+        <v>0.51</v>
+      </c>
       <c r="V19" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -1956,22 +2277,25 @@
       <c r="Z19">
         <v>5.14586353302002</v>
       </c>
-      <c r="AA19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300537</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>-1.73</v>
@@ -1989,7 +2313,7 @@
         <v>14080.38</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20">
         <v>16</v>
@@ -2009,8 +2333,23 @@
       <c r="P20">
         <v>-0.16</v>
       </c>
+      <c r="Q20">
+        <v>-1.34</v>
+      </c>
+      <c r="R20">
+        <v>25.74</v>
+      </c>
+      <c r="S20">
+        <v>3.17</v>
+      </c>
       <c r="V20" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2018,22 +2357,25 @@
       <c r="Z20">
         <v>4.082329273223877</v>
       </c>
-      <c r="AA20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300548</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>-1.15</v>
@@ -2051,7 +2393,7 @@
         <v>135577.13</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2071,8 +2413,23 @@
       <c r="P21">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="Q21">
+        <v>1.7</v>
+      </c>
+      <c r="R21">
+        <v>92.7</v>
+      </c>
+      <c r="S21">
+        <v>8.869999999999999</v>
+      </c>
       <c r="V21" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2080,22 +2437,25 @@
       <c r="Z21">
         <v>2.91746187210083</v>
       </c>
-      <c r="AA21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300591</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>2.96</v>
@@ -2113,7 +2473,7 @@
         <v>79323.47</v>
       </c>
       <c r="J22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K22">
         <v>20</v>
@@ -2133,8 +2493,23 @@
       <c r="P22">
         <v>1.46</v>
       </c>
+      <c r="Q22">
+        <v>5.09</v>
+      </c>
+      <c r="R22">
+        <v>13.31</v>
+      </c>
+      <c r="S22">
+        <v>6.23</v>
+      </c>
       <c r="V22" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>1</v>
@@ -2142,22 +2517,25 @@
       <c r="Z22">
         <v>2.121461391448975</v>
       </c>
-      <c r="AA22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300600</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>-1.32</v>
@@ -2175,7 +2553,7 @@
         <v>24767.79</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K23">
         <v>17</v>
@@ -2195,8 +2573,23 @@
       <c r="P23">
         <v>-0.27</v>
       </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>16.44</v>
+      </c>
+      <c r="S23">
+        <v>4.85</v>
+      </c>
       <c r="V23" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2204,22 +2597,25 @@
       <c r="Z23">
         <v>4.583415508270264</v>
       </c>
-      <c r="AA23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300631</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>2.56</v>
@@ -2237,7 +2633,7 @@
         <v>107332.54</v>
       </c>
       <c r="J24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K24">
         <v>6</v>
@@ -2257,8 +2653,23 @@
       <c r="P24">
         <v>-1.09</v>
       </c>
+      <c r="Q24">
+        <v>-6.45</v>
+      </c>
+      <c r="R24">
+        <v>33.45</v>
+      </c>
+      <c r="S24">
+        <v>-3.07</v>
+      </c>
       <c r="V24" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2266,22 +2677,25 @@
       <c r="Z24">
         <v>2.498509407043457</v>
       </c>
-      <c r="AA24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300644</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>3.36</v>
@@ -2299,7 +2713,7 @@
         <v>66932.91</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2319,8 +2733,23 @@
       <c r="P25">
         <v>0.8100000000000001</v>
       </c>
+      <c r="Q25">
+        <v>-6.7</v>
+      </c>
+      <c r="R25">
+        <v>35.28</v>
+      </c>
+      <c r="S25">
+        <v>1.58</v>
+      </c>
       <c r="V25" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2328,22 +2757,25 @@
       <c r="Z25">
         <v>4.161025524139404</v>
       </c>
-      <c r="AA25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300683</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>13.2</v>
@@ -2361,7 +2793,7 @@
         <v>37845.21</v>
       </c>
       <c r="J26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2381,8 +2813,23 @@
       <c r="P26">
         <v>-0.14</v>
       </c>
+      <c r="Q26">
+        <v>7.65</v>
+      </c>
+      <c r="R26">
+        <v>42.5</v>
+      </c>
+      <c r="S26">
+        <v>18.81</v>
+      </c>
       <c r="V26" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2390,22 +2837,25 @@
       <c r="Z26">
         <v>1.781569004058838</v>
       </c>
-      <c r="AA26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300703</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>3.94</v>
@@ -2423,7 +2873,7 @@
         <v>30777.03</v>
       </c>
       <c r="J27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K27">
         <v>7</v>
@@ -2443,8 +2893,23 @@
       <c r="P27">
         <v>0.54</v>
       </c>
+      <c r="Q27">
+        <v>-5.51</v>
+      </c>
+      <c r="R27">
+        <v>26.22</v>
+      </c>
+      <c r="S27">
+        <v>-0.68</v>
+      </c>
       <c r="V27" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>1</v>
@@ -2452,22 +2917,25 @@
       <c r="Z27">
         <v>6.889712333679199</v>
       </c>
-      <c r="AA27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300748</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>1.35</v>
@@ -2485,7 +2953,7 @@
         <v>169435.17</v>
       </c>
       <c r="J28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K28">
         <v>7</v>
@@ -2505,8 +2973,23 @@
       <c r="P28">
         <v>0.12</v>
       </c>
+      <c r="Q28">
+        <v>-0.34</v>
+      </c>
+      <c r="R28">
+        <v>27.37</v>
+      </c>
+      <c r="S28">
+        <v>1.03</v>
+      </c>
       <c r="V28" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2514,22 +2997,25 @@
       <c r="Z28">
         <v>1.757918477058411</v>
       </c>
-      <c r="AA28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300803</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>-3.62</v>
@@ -2547,7 +3033,7 @@
         <v>279914.98</v>
       </c>
       <c r="J29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K29">
         <v>17</v>
@@ -2567,8 +3053,23 @@
       <c r="P29">
         <v>-0.93</v>
       </c>
+      <c r="Q29">
+        <v>2.51</v>
+      </c>
+      <c r="R29">
+        <v>88.15000000000001</v>
+      </c>
+      <c r="S29">
+        <v>5.76</v>
+      </c>
       <c r="V29" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2576,22 +3077,25 @@
       <c r="Z29">
         <v>1.676056027412415</v>
       </c>
-      <c r="AA29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300839</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>5.12</v>
@@ -2609,7 +3113,7 @@
         <v>33018.54</v>
       </c>
       <c r="J30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2629,8 +3133,23 @@
       <c r="P30">
         <v>-0.61</v>
       </c>
+      <c r="Q30">
+        <v>-4.34</v>
+      </c>
+      <c r="R30">
+        <v>14.83</v>
+      </c>
+      <c r="S30">
+        <v>-1</v>
+      </c>
       <c r="V30" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>1</v>
@@ -2638,22 +3157,25 @@
       <c r="Z30">
         <v>8.629112243652344</v>
       </c>
-      <c r="AA30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300872</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>2.36</v>
@@ -2671,7 +3193,7 @@
         <v>109658.84</v>
       </c>
       <c r="J31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K31">
         <v>26</v>
@@ -2691,8 +3213,23 @@
       <c r="P31">
         <v>0.47</v>
       </c>
+      <c r="Q31">
+        <v>4.49</v>
+      </c>
+      <c r="R31">
+        <v>25.68</v>
+      </c>
+      <c r="S31">
+        <v>3.97</v>
+      </c>
       <c r="V31" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2700,22 +3237,25 @@
       <c r="Z31">
         <v>4.023653507232666</v>
       </c>
-      <c r="AA31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300950</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>-6.31</v>
@@ -2733,7 +3273,7 @@
         <v>43768.62</v>
       </c>
       <c r="J32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K32">
         <v>5</v>
@@ -2753,8 +3293,23 @@
       <c r="P32">
         <v>0.45</v>
       </c>
+      <c r="Q32">
+        <v>-6.24</v>
+      </c>
+      <c r="R32">
+        <v>30.98</v>
+      </c>
+      <c r="S32">
+        <v>-2.02</v>
+      </c>
       <c r="V32" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>1</v>
@@ -2762,22 +3317,25 @@
       <c r="Z32">
         <v>9.33595085144043</v>
       </c>
-      <c r="AA32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>301012</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>1.58</v>
@@ -2795,7 +3353,7 @@
         <v>43958.68</v>
       </c>
       <c r="J33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2815,8 +3373,23 @@
       <c r="P33">
         <v>-0.03</v>
       </c>
+      <c r="Q33">
+        <v>-4.77</v>
+      </c>
+      <c r="R33">
+        <v>23.71</v>
+      </c>
+      <c r="S33">
+        <v>-0.38</v>
+      </c>
       <c r="V33" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2824,22 +3397,25 @@
       <c r="Z33">
         <v>3.223318815231323</v>
       </c>
-      <c r="AA33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>301132</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>-3.29</v>
@@ -2857,7 +3433,7 @@
         <v>46439.8</v>
       </c>
       <c r="J34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2877,8 +3453,23 @@
       <c r="P34">
         <v>-0.59</v>
       </c>
+      <c r="Q34">
+        <v>-2.99</v>
+      </c>
+      <c r="R34">
+        <v>38.45</v>
+      </c>
+      <c r="S34">
+        <v>1.37</v>
+      </c>
       <c r="V34" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2886,22 +3477,25 @@
       <c r="Z34">
         <v>1.991578578948975</v>
       </c>
-      <c r="AA34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>301141</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>-2.1</v>
@@ -2919,7 +3513,7 @@
         <v>65116.1</v>
       </c>
       <c r="J35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K35">
         <v>17</v>
@@ -2939,8 +3533,23 @@
       <c r="P35">
         <v>-0.92</v>
       </c>
+      <c r="Q35">
+        <v>-4.01</v>
+      </c>
+      <c r="R35">
+        <v>69.48999999999999</v>
+      </c>
+      <c r="S35">
+        <v>-1.93</v>
+      </c>
       <c r="V35" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -2948,22 +3557,25 @@
       <c r="Z35">
         <v>4.716500759124756</v>
       </c>
-      <c r="AA35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>301165</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>-1.82</v>
@@ -2981,7 +3593,7 @@
         <v>36322.83</v>
       </c>
       <c r="J36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K36">
         <v>4</v>
@@ -3001,8 +3613,23 @@
       <c r="P36">
         <v>-0.67</v>
       </c>
+      <c r="Q36">
+        <v>-0.85</v>
+      </c>
+      <c r="R36">
+        <v>64.5</v>
+      </c>
+      <c r="S36">
+        <v>3.86</v>
+      </c>
       <c r="V36" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3010,22 +3637,25 @@
       <c r="Z36">
         <v>0.9763198494911194</v>
       </c>
-      <c r="AA36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>301176</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>0.42</v>
@@ -3043,7 +3673,7 @@
         <v>21836.36</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K37">
         <v>22</v>
@@ -3063,8 +3693,23 @@
       <c r="P37">
         <v>-0.46</v>
       </c>
+      <c r="Q37">
+        <v>-4.61</v>
+      </c>
+      <c r="R37">
+        <v>34.45</v>
+      </c>
+      <c r="S37">
+        <v>2.44</v>
+      </c>
       <c r="V37" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3072,22 +3717,25 @@
       <c r="Z37">
         <v>0.1905183792114258</v>
       </c>
-      <c r="AA37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>301183</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>-3.23</v>
@@ -3105,7 +3753,7 @@
         <v>42812.15</v>
       </c>
       <c r="J38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K38">
         <v>4</v>
@@ -3125,8 +3773,23 @@
       <c r="P38">
         <v>-1.58</v>
       </c>
+      <c r="Q38">
+        <v>-6.89</v>
+      </c>
+      <c r="R38">
+        <v>74.8</v>
+      </c>
+      <c r="S38">
+        <v>2.26</v>
+      </c>
       <c r="V38" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3134,22 +3797,25 @@
       <c r="Z38">
         <v>1.541181087493896</v>
       </c>
-      <c r="AA38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>301217</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>-5.67</v>
@@ -3167,7 +3833,7 @@
         <v>126224.73</v>
       </c>
       <c r="J39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K39">
         <v>11</v>
@@ -3187,8 +3853,23 @@
       <c r="P39">
         <v>-0.96</v>
       </c>
+      <c r="Q39">
+        <v>-5.25</v>
+      </c>
+      <c r="R39">
+        <v>22.16</v>
+      </c>
+      <c r="S39">
+        <v>9.16</v>
+      </c>
       <c r="V39" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3196,22 +3877,25 @@
       <c r="Z39">
         <v>2.73261547088623</v>
       </c>
-      <c r="AA39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>301265</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>-3.99</v>
@@ -3229,7 +3913,7 @@
         <v>28059.54</v>
       </c>
       <c r="J40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -3249,8 +3933,23 @@
       <c r="P40">
         <v>-0.32</v>
       </c>
+      <c r="Q40">
+        <v>-2.8</v>
+      </c>
+      <c r="R40">
+        <v>13.17</v>
+      </c>
+      <c r="S40">
+        <v>1.39</v>
+      </c>
       <c r="V40" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3258,22 +3957,25 @@
       <c r="Z40">
         <v>2.782983303070068</v>
       </c>
-      <c r="AA40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>301345</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>-1.65</v>
@@ -3291,7 +3993,7 @@
         <v>16649.12</v>
       </c>
       <c r="J41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K41">
         <v>15</v>
@@ -3311,8 +4013,23 @@
       <c r="P41">
         <v>-0.19</v>
       </c>
+      <c r="Q41">
+        <v>-1.31</v>
+      </c>
+      <c r="R41">
+        <v>137.1</v>
+      </c>
+      <c r="S41">
+        <v>0.43</v>
+      </c>
       <c r="V41" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3320,22 +4037,25 @@
       <c r="Z41">
         <v>2.106206178665161</v>
       </c>
-      <c r="AA41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>301357</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>0.73</v>
@@ -3353,7 +4073,7 @@
         <v>37948.24</v>
       </c>
       <c r="J42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K42">
         <v>4</v>
@@ -3373,8 +4093,23 @@
       <c r="P42">
         <v>0.1</v>
       </c>
+      <c r="Q42">
+        <v>8.5</v>
+      </c>
+      <c r="R42">
+        <v>95.61</v>
+      </c>
+      <c r="S42">
+        <v>13.52</v>
+      </c>
       <c r="V42" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
       </c>
       <c r="Y42">
         <v>1</v>
@@ -3382,22 +4117,25 @@
       <c r="Z42">
         <v>9.51347541809082</v>
       </c>
-      <c r="AA42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>301377</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>-3.29</v>
@@ -3415,7 +4153,7 @@
         <v>30431.09</v>
       </c>
       <c r="J43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K43">
         <v>5</v>
@@ -3435,8 +4173,23 @@
       <c r="P43">
         <v>-0.79</v>
       </c>
+      <c r="Q43">
+        <v>0.89</v>
+      </c>
+      <c r="R43">
+        <v>46.99</v>
+      </c>
+      <c r="S43">
+        <v>8.02</v>
+      </c>
       <c r="V43" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3444,22 +4197,25 @@
       <c r="Z43">
         <v>5.332104682922363</v>
       </c>
-      <c r="AA43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>301388</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>-5.57</v>
@@ -3477,7 +4233,7 @@
         <v>25305.2</v>
       </c>
       <c r="J44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K44">
         <v>11</v>
@@ -3497,8 +4253,23 @@
       <c r="P44">
         <v>-1.39</v>
       </c>
+      <c r="Q44">
+        <v>-5.57</v>
+      </c>
+      <c r="R44">
+        <v>39.88</v>
+      </c>
+      <c r="S44">
+        <v>5.03</v>
+      </c>
       <c r="V44" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3506,22 +4277,25 @@
       <c r="Z44">
         <v>2.138367414474487</v>
       </c>
-      <c r="AA44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>301389</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>-1.12</v>
@@ -3539,7 +4313,7 @@
         <v>41207.95</v>
       </c>
       <c r="J45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K45">
         <v>10</v>
@@ -3559,8 +4333,23 @@
       <c r="P45">
         <v>-1.9</v>
       </c>
+      <c r="Q45">
+        <v>-5.74</v>
+      </c>
+      <c r="R45">
+        <v>34.77</v>
+      </c>
+      <c r="S45">
+        <v>6.17</v>
+      </c>
       <c r="V45" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3568,22 +4357,25 @@
       <c r="Z45">
         <v>6.081626415252686</v>
       </c>
-      <c r="AA45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>301421</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>-2.32</v>
@@ -3601,7 +4393,7 @@
         <v>29242.21</v>
       </c>
       <c r="J46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K46">
         <v>21</v>
@@ -3621,8 +4413,23 @@
       <c r="P46">
         <v>-0.57</v>
       </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>78.31</v>
+      </c>
+      <c r="S46">
+        <v>5.45</v>
+      </c>
       <c r="V46" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>1</v>
@@ -3630,22 +4437,25 @@
       <c r="Z46">
         <v>5.769554138183594</v>
       </c>
-      <c r="AA46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>301511</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>0.98</v>
@@ -3663,7 +4473,7 @@
         <v>49077.55</v>
       </c>
       <c r="J47" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K47">
         <v>20</v>
@@ -3683,8 +4493,23 @@
       <c r="P47">
         <v>0.04</v>
       </c>
+      <c r="Q47">
+        <v>-4.31</v>
+      </c>
+      <c r="R47">
+        <v>29.31</v>
+      </c>
+      <c r="S47">
+        <v>14.05</v>
+      </c>
       <c r="V47" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3692,22 +4517,25 @@
       <c r="Z47">
         <v>1.414759278297424</v>
       </c>
-      <c r="AA47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>301526</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>1.01</v>
@@ -3725,7 +4553,7 @@
         <v>36383.46</v>
       </c>
       <c r="J48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K48">
         <v>10</v>
@@ -3745,8 +4573,23 @@
       <c r="P48">
         <v>-0.27</v>
       </c>
+      <c r="Q48">
+        <v>-2.38</v>
+      </c>
+      <c r="R48">
+        <v>5.13</v>
+      </c>
+      <c r="S48">
+        <v>3.01</v>
+      </c>
       <c r="V48" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>1</v>
@@ -3754,22 +4597,25 @@
       <c r="Z48">
         <v>10.10582256317139</v>
       </c>
-      <c r="AA48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>688062</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>-0.22</v>
@@ -3787,7 +4633,7 @@
         <v>47027.59</v>
       </c>
       <c r="J49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K49">
         <v>13</v>
@@ -3807,8 +4653,23 @@
       <c r="P49">
         <v>-0.26</v>
       </c>
+      <c r="Q49">
+        <v>-6.94</v>
+      </c>
+      <c r="R49">
+        <v>35.95</v>
+      </c>
+      <c r="S49">
+        <v>-0.75</v>
+      </c>
       <c r="V49" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3816,22 +4677,25 @@
       <c r="Z49">
         <v>3.289038896560669</v>
       </c>
-      <c r="AA49" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>688084</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>6.65</v>
@@ -3849,7 +4713,7 @@
         <v>29548.6</v>
       </c>
       <c r="J50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -3869,8 +4733,23 @@
       <c r="P50">
         <v>0.76</v>
       </c>
+      <c r="Q50">
+        <v>2.65</v>
+      </c>
+      <c r="R50">
+        <v>113.3</v>
+      </c>
+      <c r="S50">
+        <v>4.91</v>
+      </c>
       <c r="V50" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3878,22 +4757,25 @@
       <c r="Z50">
         <v>-1.089233756065369</v>
       </c>
-      <c r="AA50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>688117</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>3.06</v>
@@ -3911,7 +4793,7 @@
         <v>41404.28</v>
       </c>
       <c r="J51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K51">
         <v>5</v>
@@ -3931,8 +4813,23 @@
       <c r="P51">
         <v>-0.12</v>
       </c>
+      <c r="Q51">
+        <v>-4.89</v>
+      </c>
+      <c r="R51">
+        <v>43.51</v>
+      </c>
+      <c r="S51">
+        <v>-0.59</v>
+      </c>
       <c r="V51" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
       </c>
       <c r="Y51">
         <v>1</v>
@@ -3940,22 +4837,25 @@
       <c r="Z51">
         <v>4.449351787567139</v>
       </c>
-      <c r="AA51" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>688202</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>-1.05</v>
@@ -3973,7 +4873,7 @@
         <v>47431.56</v>
       </c>
       <c r="J52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K52">
         <v>10</v>
@@ -3993,8 +4893,23 @@
       <c r="P52">
         <v>-0.64</v>
       </c>
+      <c r="Q52">
+        <v>0.88</v>
+      </c>
+      <c r="R52">
+        <v>62.3</v>
+      </c>
+      <c r="S52">
+        <v>5.29</v>
+      </c>
       <c r="V52" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -4002,22 +4917,25 @@
       <c r="Z52">
         <v>2.180142402648926</v>
       </c>
-      <c r="AA52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>688221</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>8.039999999999999</v>
@@ -4035,7 +4953,7 @@
         <v>51879.88</v>
       </c>
       <c r="J53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K53">
         <v>11</v>
@@ -4055,8 +4973,23 @@
       <c r="P53">
         <v>-0.33</v>
       </c>
+      <c r="Q53">
+        <v>7.43</v>
+      </c>
+      <c r="R53">
+        <v>24.18</v>
+      </c>
+      <c r="S53">
+        <v>4.63</v>
+      </c>
       <c r="V53" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -4064,22 +4997,25 @@
       <c r="Z53">
         <v>7.611166477203369</v>
       </c>
-      <c r="AA53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>688222</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>8</v>
@@ -4097,7 +5033,7 @@
         <v>108513.4</v>
       </c>
       <c r="J54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -4117,8 +5053,23 @@
       <c r="P54">
         <v>0.37</v>
       </c>
+      <c r="Q54">
+        <v>4.18</v>
+      </c>
+      <c r="R54">
+        <v>26.49</v>
+      </c>
+      <c r="S54">
+        <v>10.28</v>
+      </c>
       <c r="V54" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
       </c>
       <c r="Y54">
         <v>1</v>
@@ -4126,22 +5077,25 @@
       <c r="Z54">
         <v>6.384288311004639</v>
       </c>
-      <c r="AA54" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>688313</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55">
         <v>-1.87</v>
@@ -4159,7 +5113,7 @@
         <v>96735.3</v>
       </c>
       <c r="J55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K55">
         <v>24</v>
@@ -4179,8 +5133,23 @@
       <c r="P55">
         <v>-0.18</v>
       </c>
+      <c r="Q55">
+        <v>4.61</v>
+      </c>
+      <c r="R55">
+        <v>59.77</v>
+      </c>
+      <c r="S55">
+        <v>13.85</v>
+      </c>
       <c r="V55" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -4188,22 +5157,25 @@
       <c r="Z55">
         <v>3.936671257019043</v>
       </c>
-      <c r="AA55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>688321</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56">
         <v>1.81</v>
@@ -4221,7 +5193,7 @@
         <v>74410.52</v>
       </c>
       <c r="J56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K56">
         <v>15</v>
@@ -4241,8 +5213,23 @@
       <c r="P56">
         <v>0</v>
       </c>
+      <c r="Q56">
+        <v>1.93</v>
+      </c>
+      <c r="R56">
+        <v>37.64</v>
+      </c>
+      <c r="S56">
+        <v>2.84</v>
+      </c>
       <c r="V56" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -4250,22 +5237,25 @@
       <c r="Z56">
         <v>5.563471794128418</v>
       </c>
-      <c r="AA56" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>688499</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57">
         <v>0.53</v>
@@ -4283,7 +5273,7 @@
         <v>69152.59</v>
       </c>
       <c r="J57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K57">
         <v>25</v>
@@ -4303,8 +5293,23 @@
       <c r="P57">
         <v>-0.29</v>
       </c>
+      <c r="Q57">
+        <v>7.77</v>
+      </c>
+      <c r="R57">
+        <v>55.62</v>
+      </c>
+      <c r="S57">
+        <v>13.74</v>
+      </c>
       <c r="V57" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4312,22 +5317,25 @@
       <c r="Z57">
         <v>4.528816699981689</v>
       </c>
-      <c r="AA57" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>688543</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58">
         <v>0.02</v>
@@ -4345,7 +5353,7 @@
         <v>33391.3</v>
       </c>
       <c r="J58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -4365,8 +5373,23 @@
       <c r="P58">
         <v>-0.59</v>
       </c>
+      <c r="Q58">
+        <v>-0.68</v>
+      </c>
+      <c r="R58">
+        <v>55.45</v>
+      </c>
+      <c r="S58">
+        <v>2.23</v>
+      </c>
       <c r="V58" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4374,22 +5397,25 @@
       <c r="Z58">
         <v>7.2135329246521</v>
       </c>
-      <c r="AA58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>688553</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59">
         <v>1.3</v>
@@ -4407,7 +5433,7 @@
         <v>35880.32</v>
       </c>
       <c r="J59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -4427,8 +5453,23 @@
       <c r="P59">
         <v>0.18</v>
       </c>
+      <c r="Q59">
+        <v>-3.67</v>
+      </c>
+      <c r="R59">
+        <v>23.62</v>
+      </c>
+      <c r="S59">
+        <v>4.33</v>
+      </c>
       <c r="V59" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>1</v>
@@ -4436,22 +5477,25 @@
       <c r="Z59">
         <v>4.998388767242432</v>
       </c>
-      <c r="AA59" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>688668</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60">
         <v>2.53</v>
@@ -4469,7 +5513,7 @@
         <v>43695.76</v>
       </c>
       <c r="J60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K60">
         <v>3</v>
@@ -4489,8 +5533,23 @@
       <c r="P60">
         <v>0.29</v>
       </c>
+      <c r="Q60">
+        <v>0.78</v>
+      </c>
+      <c r="R60">
+        <v>82.73</v>
+      </c>
+      <c r="S60">
+        <v>13.92</v>
+      </c>
       <c r="V60" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -4498,8 +5557,11 @@
       <c r="Z60">
         <v>2.138424396514893</v>
       </c>
-      <c r="AA60" t="s">
-        <v>126</v>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
